--- a/UMRC6_HK2_UOK262_REGFLOW_summary.xlsx
+++ b/UMRC6_HK2_UOK262_REGFLOW_summary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66A98B-4BAB-4781-8536-CD8203CF9861}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flux_fit_fixedT1" sheetId="10" r:id="rId1"/>
@@ -17,8 +23,14 @@
     <sheet name="pHi" sheetId="6" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -383,11 +395,14 @@
   <si>
     <t>% In Lac/ (tot Lac)</t>
   </si>
+  <si>
+    <t>AUCRatio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -1603,15 +1618,23 @@
     <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="325"/>
+    <cellStyle name="Normal 2" xfId="325" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1662,13 +1685,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.756956945163692</c:v>
+                    <c:v>2.7569569451636924</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.611582933443806</c:v>
+                    <c:v>1.6115829334438065</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1703,17 +1726,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.912290262098602</c:v>
+                  <c:v>9.9122902620986029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.42197323258278</c:v>
+                  <c:v>6.4219732325827792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD1C-45B0-BBE8-D123CCE5764B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1749,13 +1777,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.389493970650594</c:v>
+                    <c:v>1.3894939706505944</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.403252315099908</c:v>
+                    <c:v>0.40325231509990844</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.36185956914513</c:v>
+                    <c:v>0.36185956914512996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1790,10 +1818,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.567810189372904</c:v>
+                  <c:v>5.5678101893729037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.420995327061369</c:v>
+                  <c:v>1.4209953270613689</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.085083526388364</c:v>
@@ -1801,6 +1829,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD1C-45B0-BBE8-D123CCE5764B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1839,6 +1872,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1864,7 +1898,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.9"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1893,7 +1927,7 @@
         <c:crossAx val="2097329160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="4.0"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1908,10 +1942,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.737844690234835"/>
-          <c:y val="0.0486092871609042"/>
-          <c:w val="0.241038427888822"/>
-          <c:h val="0.264629265091863"/>
+          <c:x val="0.73784469023483501"/>
+          <c:y val="4.8609287160904201E-2"/>
+          <c:w val="0.24103842788882199"/>
+          <c:h val="0.26462926509186302"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1941,14 +1975,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1999,13 +2033,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2040,17 +2074,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-086F-46B5-B038-73BE2F364E34}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2103,7 +2142,7 @@
         <c:axId val="2108643624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2124,7 +2163,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2174,14 +2212,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2227,13 +2265,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.756956945163692</c:v>
+                    <c:v>2.7569569451636924</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>45.99246709030935</c:v>
+                    <c:v>45.992467090309354</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>36.62720749447273</c:v>
+                    <c:v>36.627207494472728</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2243,7 +2281,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2272,17 +2310,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.912290262098602</c:v>
+                  <c:v>9.9122902620986029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.2217866593515</c:v>
+                  <c:v>124.22178665935148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.9428718602637</c:v>
+                  <c:v>104.94287186026365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6814-4079-ABD1-BBD6D547C03F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2310,13 +2353,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.611582933443806</c:v>
+                    <c:v>1.6115829334438065</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>21.60212998838924</c:v>
+                    <c:v>21.602129988389237</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.253514369591393</c:v>
+                    <c:v>8.2535143695913931</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2326,7 +2369,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2355,17 +2398,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.42197323258278</c:v>
+                  <c:v>6.4219732325827792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.09958298002523</c:v>
+                  <c:v>42.099582980025239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.35534309783936</c:v>
+                  <c:v>22.355343097839363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6814-4079-ABD1-BBD6D547C03F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2386,6 +2434,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2400,8 +2449,8 @@
         <c:axId val="2070727752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="180.0"/>
-          <c:min val="0.0"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2422,7 +2471,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -2432,12 +2480,11 @@
         <c:crossAx val="2119928440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="50.0"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2446,14 +2493,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2504,13 +2551,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.7354387809232</c:v>
+                    <c:v>4.735438780923201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.114502842489411</c:v>
+                    <c:v>4.1145028424894114</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.077137407774399</c:v>
+                    <c:v>1.0771374077743991</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2545,17 +2592,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.1152101967649</c:v>
+                  <c:v>38.115210196764899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.21072978818655</c:v>
+                  <c:v>23.210729788186551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.38401195339544</c:v>
+                  <c:v>17.384011953395436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F14D-456B-8DC1-6EC96220C733}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2591,10 +2643,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.359612028624668</c:v>
+                    <c:v>1.3596120286246676</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.06762775451364</c:v>
+                    <c:v>4.0676277545136399</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.955247233520212</c:v>
@@ -2632,17 +2684,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.85853600772179</c:v>
+                  <c:v>19.858536007721792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.81113512226018</c:v>
+                  <c:v>28.811135122260186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.84506341350486</c:v>
+                  <c:v>16.845063413504864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F14D-456B-8DC1-6EC96220C733}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2688,8 +2745,8 @@
         <c:axId val="2112147848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
-          <c:min val="0.0"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2714,7 +2771,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -2724,7 +2780,7 @@
         <c:crossAx val="2108831480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2739,9 +2795,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.782338556401251"/>
-          <c:y val="0.00150775989957777"/>
-          <c:w val="0.197453338354953"/>
+          <c:x val="0.78233855640125105"/>
+          <c:y val="1.5077598995777699E-3"/>
+          <c:w val="0.19745333835495299"/>
           <c:h val="0.231152002738788"/>
         </c:manualLayout>
       </c:layout>
@@ -2772,14 +2828,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2830,13 +2886,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2871,17 +2927,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D96-419E-813C-B178B646FEC4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2927,7 +2988,7 @@
         <c:axId val="2108380088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2952,7 +3013,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -2962,7 +3022,7 @@
         <c:crossAx val="2108914104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2996,14 +3056,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3024,9 +3084,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.205004374453193"/>
-          <c:y val="0.0601851851851852"/>
-          <c:w val="0.724452974628172"/>
-          <c:h val="0.689629629629629"/>
+          <c:y val="6.0185185185185203E-2"/>
+          <c:w val="0.72445297462817204"/>
+          <c:h val="0.68962962962962904"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3063,7 +3123,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.7354387809232</c:v>
+                    <c:v>4.735438780923201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3075,7 +3135,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.7354387809232</c:v>
+                    <c:v>4.735438780923201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3093,7 +3153,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3105,7 +3165,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3118,7 +3178,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.1152101967649</c:v>
+                  <c:v>38.115210196764899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,12 +3190,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A804-4401-8250-5A9E02283BC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3168,7 +3233,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.114502842489411</c:v>
+                    <c:v>4.1145028424894114</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3180,7 +3245,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.114502842489411</c:v>
+                    <c:v>4.1145028424894114</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3198,7 +3263,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3210,7 +3275,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3223,7 +3288,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23.21072978818655</c:v>
+                  <c:v>23.210729788186551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,12 +3300,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A804-4401-8250-5A9E02283BC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3278,7 +3348,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.077137407774399</c:v>
+                    <c:v>1.0771374077743991</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3290,7 +3360,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.077137407774399</c:v>
+                    <c:v>1.0771374077743991</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3308,7 +3378,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3320,7 +3390,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3333,7 +3403,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.38401195339544</c:v>
+                  <c:v>17.384011953395436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,12 +3415,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A804-4401-8250-5A9E02283BC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3370,8 +3445,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0836806649168854"/>
-                  <c:y val="0.0231481481481481"/>
+                  <c:x val="-8.3680664916885403E-2"/>
+                  <c:y val="2.3148148148148098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3384,13 +3459,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.1152101967649</c:v>
+                  <c:v>38.115210196764899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.21072978818655</c:v>
+                  <c:v>23.210729788186551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.38401195339544</c:v>
+                  <c:v>17.384011953395436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,18 +3477,23 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A804-4401-8250-5A9E02283BC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3430,8 +3510,8 @@
         <c:axId val="2112861496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44.0"/>
-          <c:min val="14.0"/>
+          <c:max val="44"/>
+          <c:min val="14"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3451,7 +3531,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -3473,7 +3552,7 @@
         <c:axId val="2070735000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.6"/>
+          <c:max val="4.5999999999999996"/>
           <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3498,8 +3577,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0455555555555555"/>
-              <c:y val="0.064209192160839"/>
+              <c:x val="4.5555555555555502E-2"/>
+              <c:y val="6.4209192160838993E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3518,7 +3597,7 @@
         <c:crossAx val="2112861496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3542,10 +3621,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.738651793525809"/>
-          <c:y val="0.459583643593847"/>
-          <c:w val="0.183570428696413"/>
-          <c:h val="0.255703217458539"/>
+          <c:x val="0.73865179352580901"/>
+          <c:y val="0.45958364359384701"/>
+          <c:w val="0.18357042869641299"/>
+          <c:h val="0.25570321745853902"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3575,14 +3654,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3632,7 +3711,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.7354387809232</c:v>
+                    <c:v>4.735438780923201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3644,7 +3723,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.7354387809232</c:v>
+                    <c:v>4.735438780923201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3662,7 +3741,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3674,7 +3753,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3687,7 +3766,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.1152101967649</c:v>
+                  <c:v>38.115210196764899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,12 +3778,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9848-418F-8BEF-4FC800BFDCA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3737,7 +3821,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.114502842489411</c:v>
+                    <c:v>4.1145028424894114</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3749,7 +3833,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.114502842489411</c:v>
+                    <c:v>4.1145028424894114</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3767,7 +3851,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3779,7 +3863,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3792,7 +3876,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23.21072978818655</c:v>
+                  <c:v>23.210729788186551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,12 +3888,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9848-418F-8BEF-4FC800BFDCA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3847,7 +3936,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.077137407774399</c:v>
+                    <c:v>1.0771374077743991</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3859,7 +3948,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.077137407774399</c:v>
+                    <c:v>1.0771374077743991</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3877,7 +3966,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3889,7 +3978,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3902,7 +3991,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.38401195339544</c:v>
+                  <c:v>17.384011953395436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,12 +4003,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9848-418F-8BEF-4FC800BFDCA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3939,8 +4033,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0836806649168854"/>
-                  <c:y val="0.0231481481481481"/>
+                  <c:x val="-8.3680664916885403E-2"/>
+                  <c:y val="2.3148148148148098E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3953,13 +4047,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.1152101967649</c:v>
+                  <c:v>38.115210196764899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.21072978818655</c:v>
+                  <c:v>23.210729788186551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.38401195339544</c:v>
+                  <c:v>17.384011953395436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,18 +4065,23 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9848-418F-8BEF-4FC800BFDCA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3999,8 +4098,8 @@
         <c:axId val="2108743032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44.0"/>
-          <c:min val="14.0"/>
+          <c:max val="44"/>
+          <c:min val="14"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4025,7 +4124,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -4040,7 +4138,7 @@
         <c:axId val="2108753256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.6"/>
+          <c:max val="4.5999999999999996"/>
           <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4062,7 +4160,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4072,12 +4169,11 @@
         <c:crossAx val="2108743032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4086,14 +4182,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4144,13 +4240,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.7354387809232</c:v>
+                    <c:v>4.735438780923201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.114502842489411</c:v>
+                    <c:v>4.1145028424894114</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.077137407774399</c:v>
+                    <c:v>1.0771374077743991</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4185,17 +4281,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.1152101967649</c:v>
+                  <c:v>38.115210196764899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.21072978818655</c:v>
+                  <c:v>23.210729788186551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.38401195339544</c:v>
+                  <c:v>17.384011953395436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13C4-40A6-B9B1-15D00E990AB1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4241,8 +4342,8 @@
         <c:axId val="2109134952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43.0"/>
-          <c:min val="0.0"/>
+          <c:max val="43"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4267,7 +4368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4277,7 +4377,7 @@
         <c:crossAx val="2109110392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4311,14 +4411,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4339,9 +4439,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.205004374453193"/>
-          <c:y val="0.0601851851851852"/>
-          <c:w val="0.724452974628172"/>
-          <c:h val="0.689629629629629"/>
+          <c:y val="6.0185185185185203E-2"/>
+          <c:w val="0.72445297462817204"/>
+          <c:h val="0.68962962962962904"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4382,7 +4482,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4394,7 +4494,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4412,7 +4512,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4424,7 +4524,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4437,7 +4537,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4449,12 +4549,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA04-4367-A15F-DE602EE743F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4499,7 +4604,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4511,7 +4616,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4529,7 +4634,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4541,7 +4646,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4554,7 +4659,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,12 +4671,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA04-4367-A15F-DE602EE743F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4621,7 +4731,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4633,7 +4743,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4651,7 +4761,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4663,7 +4773,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4676,7 +4786,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,12 +4798,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA04-4367-A15F-DE602EE743F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -4713,8 +4828,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16662467191601"/>
-                  <c:y val="-0.0652457671248008"/>
+                  <c:x val="-0.16662467191600999"/>
+                  <c:y val="-6.5245767124800805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4727,13 +4842,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,18 +4860,23 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA04-4367-A15F-DE602EE743F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4794,7 +4914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -4816,7 +4935,7 @@
         <c:axId val="2107830840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.6"/>
+          <c:max val="4.5999999999999996"/>
           <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4841,8 +4960,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0455555555555555"/>
-              <c:y val="0.064209192160839"/>
+              <c:x val="4.5555555555555502E-2"/>
+              <c:y val="6.4209192160838993E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4861,7 +4980,7 @@
         <c:crossAx val="2119532840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4885,10 +5004,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.738651793525809"/>
-          <c:y val="0.0547741151594528"/>
-          <c:w val="0.183570428696413"/>
-          <c:h val="0.255703217458539"/>
+          <c:x val="0.73865179352580901"/>
+          <c:y val="5.4774115159452803E-2"/>
+          <c:w val="0.18357042869641299"/>
+          <c:h val="0.25570321745853902"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4918,14 +5037,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4976,13 +5095,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5017,17 +5136,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B49-476F-B80C-181E3C6D2903}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5074,7 +5198,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.2"/>
-          <c:min val="1.0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5094,7 +5218,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5104,7 +5227,7 @@
         <c:crossAx val="-2135549320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5138,14 +5261,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5166,9 +5289,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.205004374453193"/>
-          <c:y val="0.0601851851851852"/>
-          <c:w val="0.724452974628172"/>
-          <c:h val="0.689629629629629"/>
+          <c:y val="6.0185185185185203E-2"/>
+          <c:w val="0.72445297462817204"/>
+          <c:h val="0.68962962962962904"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5209,7 +5332,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5221,7 +5344,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.309529061585145</c:v>
+                    <c:v>0.30952906158514498</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5239,7 +5362,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5251,7 +5374,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5264,7 +5387,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5276,12 +5399,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5822-4B46-9272-71044D682A08}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5326,7 +5454,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5338,7 +5466,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.452022829523189</c:v>
+                    <c:v>0.45202282952318901</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5356,7 +5484,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5368,7 +5496,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5381,7 +5509,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5393,12 +5521,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5822-4B46-9272-71044D682A08}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5448,7 +5581,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5460,7 +5593,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0777668781080757</c:v>
+                    <c:v>7.7766878108075754E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5478,7 +5611,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5490,7 +5623,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5503,7 +5636,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5515,12 +5648,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5822-4B46-9272-71044D682A08}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -5540,8 +5678,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16662467191601"/>
-                  <c:y val="-0.0652457671248008"/>
+                  <c:x val="-0.16662467191600999"/>
+                  <c:y val="-6.5245767124800805E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5554,13 +5692,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.274793468082997</c:v>
+                  <c:v>4.2747934680829971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.440056669142171</c:v>
+                  <c:v>2.4400566691421708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.085209595015438</c:v>
+                  <c:v>1.0852095950154377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,18 +5710,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5822-4B46-9272-71044D682A08}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5624,7 +5767,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -5670,7 +5812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -5710,10 +5851,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.738651793525809"/>
-          <c:y val="0.0547741151594528"/>
-          <c:w val="0.183570428696413"/>
-          <c:h val="0.255703217458539"/>
+          <c:x val="0.73865179352580901"/>
+          <c:y val="5.4774115159452803E-2"/>
+          <c:w val="0.18357042869641299"/>
+          <c:h val="0.25570321745853902"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5743,14 +5884,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5788,10 +5929,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>2.04456401380049E-5</c:v>
+                    <c:v>2.0445640138004895E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.85095329530246E-6</c:v>
+                    <c:v>4.8509532953024597E-6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5801,7 +5942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -5813,14 +5954,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.81290258690487E-5</c:v>
+                  <c:v>4.8129025869048731E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.48104620232319E-5</c:v>
+                  <c:v>1.4810462023231936E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC3F-4F28-AACC-DA3AC1061D1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5840,10 +5986,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.38482825903763E-6</c:v>
+                    <c:v>8.3848282590376302E-6</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.38195043233951E-6</c:v>
+                    <c:v>5.3819504323395129E-6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5853,7 +5999,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -5865,14 +6011,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.46542823090282E-5</c:v>
+                  <c:v>4.4654282309028188E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.71184149513885E-5</c:v>
+                  <c:v>1.7118414951388487E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC3F-4F28-AACC-DA3AC1061D1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5930,14 +6081,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5975,10 +6126,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>2.04456401380049E-5</c:v>
+                    <c:v>2.0445640138004895E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.85095329530246E-6</c:v>
+                    <c:v>4.8509532953024597E-6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5988,7 +6139,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -6000,14 +6151,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.96187802274698E-5</c:v>
+                  <c:v>9.9618780227469798E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.11287452093978E-5</c:v>
+                  <c:v>2.1128745209397786E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6E4-4894-9D8B-1F2C2754EF28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6027,10 +6183,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.38482825903763E-6</c:v>
+                    <c:v>8.3848282590376302E-6</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.38195043233951E-6</c:v>
+                    <c:v>5.3819504323395129E-6</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6040,7 +6196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -6052,14 +6208,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.05270568128137E-5</c:v>
+                  <c:v>9.0527056812813686E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90022090571746E-5</c:v>
+                  <c:v>1.9002209057174643E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6E4-4894-9D8B-1F2C2754EF28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6117,14 +6278,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6170,13 +6331,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.323354469051118</c:v>
+                    <c:v>0.32335446905111853</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.996452608871533</c:v>
+                    <c:v>0.99645260887153331</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.374994071006158</c:v>
+                    <c:v>0.37499407100615811</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6186,7 +6347,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -6215,17 +6376,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.820713817124389</c:v>
+                  <c:v>1.8207138171243893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.661148837195625</c:v>
+                  <c:v>3.6611488371956251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.798831716114098</c:v>
+                  <c:v>4.7988317161140985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B94F-491A-BA3C-5CB0452F8BA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6253,13 +6419,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.36185956914513</c:v>
+                    <c:v>0.36185956914512996</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.563080238760835</c:v>
+                    <c:v>0.56308023876083513</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.988082265070026</c:v>
+                    <c:v>0.98808226507002583</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6269,7 +6435,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -6301,14 +6467,19 @@
                   <c:v>4.085083526388364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.628842631786942</c:v>
+                  <c:v>2.6288426317869424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.280424879909616</c:v>
+                  <c:v>5.2804248799096163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B94F-491A-BA3C-5CB0452F8BA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6329,6 +6500,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6344,7 +6516,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.5"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6365,7 +6537,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -6375,12 +6546,11 @@
         <c:crossAx val="2070821864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6389,14 +6559,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6442,7 +6612,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6452,16 +6622,11 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Summary!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$C$9:$D$9</c:f>
@@ -6469,14 +6634,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>104.9428718602637</c:v>
+                  <c:v>104.94287186026365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.35534309783936</c:v>
+                  <c:v>22.355343097839363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58A5-4A91-8013-BC534EA568CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6504,7 +6689,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6514,16 +6699,11 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Summary!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$C$6:$D$6</c:f>
@@ -6531,14 +6711,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>124.2217866593515</c:v>
+                  <c:v>124.22178665935148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.09958298002523</c:v>
+                  <c:v>42.099582980025239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58A5-4A91-8013-BC534EA568CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6566,7 +6766,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>1.0</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6576,16 +6776,11 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Summary!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$C$3:$D$3</c:f>
@@ -6593,14 +6788,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.912290262098602</c:v>
+                  <c:v>9.9122902620986029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.42197323258278</c:v>
+                  <c:v>6.4219732325827792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58A5-4A91-8013-BC534EA568CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6655,7 +6870,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -6669,7 +6883,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6678,14 +6891,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6731,13 +6944,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>17.75976356140474</c:v>
+                    <c:v>17.759763561404736</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>27.21693799356156</c:v>
+                    <c:v>27.216937993561558</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.814278415868545</c:v>
+                    <c:v>7.8142784158685457</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6747,7 +6960,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -6759,17 +6972,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA50-4918-B9F1-A2ED77C0C2C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6797,13 +7015,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.313714800036655</c:v>
+                    <c:v>3.3137148000366552</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.66543684123475</c:v>
+                    <c:v>32.665436841234758</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.02645425007985</c:v>
+                    <c:v>9.0264542500798512</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6813,7 +7031,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -6842,17 +7060,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>163.7321588941303</c:v>
+                  <c:v>163.73215889413032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.22084689821095</c:v>
+                  <c:v>87.220846898210951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.295650020742</c:v>
+                  <c:v>113.29565002074202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA50-4918-B9F1-A2ED77C0C2C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6912,7 +7135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6926,7 +7148,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6935,14 +7156,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6993,13 +7214,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>9.86627241545697</c:v>
+                    <c:v>9.8662724154569705</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12.98818668655006</c:v>
+                    <c:v>12.988186686550058</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.483605738154166</c:v>
+                    <c:v>6.483605738154167</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7034,17 +7255,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.31596447353654</c:v>
+                  <c:v>39.315964473536539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.31219113413201</c:v>
+                  <c:v>25.312191134132011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.56139558217455</c:v>
+                  <c:v>17.561395582174548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D41A-4601-ACE1-21A50C8ADEE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7080,13 +7306,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>5.769974771105807</c:v>
+                    <c:v>5.7699747711058071</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.104882543027432</c:v>
+                    <c:v>4.1048825430274318</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.953359990231485</c:v>
+                    <c:v>3.9533599902314847</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7121,17 +7347,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.33244913912512</c:v>
+                  <c:v>20.332449139125117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.3966578646887</c:v>
+                  <c:v>26.396657864688702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.78122973509509</c:v>
+                  <c:v>16.781229735095089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D41A-4601-ACE1-21A50C8ADEE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7177,8 +7408,8 @@
         <c:axId val="2070901512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
-          <c:min val="0.0"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7203,7 +7434,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -7213,7 +7443,7 @@
         <c:crossAx val="2070898504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7228,9 +7458,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.782338556401251"/>
-          <c:y val="0.00150775989957777"/>
-          <c:w val="0.197453338354953"/>
+          <c:x val="0.78233855640125105"/>
+          <c:y val="1.5077598995777699E-3"/>
+          <c:w val="0.19745333835495299"/>
           <c:h val="0.231152002738788"/>
         </c:manualLayout>
       </c:layout>
@@ -7261,14 +7491,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7319,13 +7549,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>27.81352111636001</c:v>
+                    <c:v>27.813521116360015</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>37.02447720900416</c:v>
+                    <c:v>37.024477209004161</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>34.90204417432331</c:v>
+                    <c:v>34.902044174323315</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7360,17 +7590,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2115-43E3-BD4B-CADC0AAC9C39}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7406,13 +7641,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.313714800036655</c:v>
+                    <c:v>3.3137148000366552</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.66543684123475</c:v>
+                    <c:v>32.665436841234758</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.02645425007985</c:v>
+                    <c:v>9.0264542500798512</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7447,17 +7682,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>163.7321588941303</c:v>
+                  <c:v>163.73215889413032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.22084689821095</c:v>
+                  <c:v>87.220846898210951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.295650020742</c:v>
+                  <c:v>113.29565002074202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2115-43E3-BD4B-CADC0AAC9C39}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7494,7 +7734,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7522,8 +7761,8 @@
         <c:axId val="2070786552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="240.0"/>
-          <c:min val="0.0"/>
+          <c:max val="240"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7543,7 +7782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -7567,9 +7805,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.228389724365656"/>
-          <c:y val="0.00150775989957777"/>
-          <c:w val="0.197453338354953"/>
+          <c:x val="0.22838972436565599"/>
+          <c:y val="1.5077598995777699E-3"/>
+          <c:w val="0.19745333835495299"/>
           <c:h val="0.231152002738788"/>
         </c:manualLayout>
       </c:layout>
@@ -7600,14 +7838,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7666,6 +7904,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CFB4-4EFC-8143-D8C78260E58C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7686,6 +7929,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CFB4-4EFC-8143-D8C78260E58C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7706,6 +7954,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CFB4-4EFC-8143-D8C78260E58C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:errBars>
             <c:errBarType val="plus"/>
@@ -7718,13 +7971,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>27.81352111636001</c:v>
+                    <c:v>27.813521116360015</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>37.02447720900416</c:v>
+                    <c:v>37.024477209004161</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>34.90204417432331</c:v>
+                    <c:v>34.902044174323315</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7759,17 +8012,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CFB4-4EFC-8143-D8C78260E58C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7817,6 +8075,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-CFB4-4EFC-8143-D8C78260E58C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7841,6 +8104,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-CFB4-4EFC-8143-D8C78260E58C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7865,6 +8133,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-CFB4-4EFC-8143-D8C78260E58C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:errBars>
             <c:errBarType val="plus"/>
@@ -7877,13 +8150,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.313714800036655</c:v>
+                    <c:v>3.3137148000366552</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>32.66543684123475</c:v>
+                    <c:v>32.665436841234758</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.02645425007985</c:v>
+                    <c:v>9.0264542500798512</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7918,17 +8191,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>163.7321588941303</c:v>
+                  <c:v>163.73215889413032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.22084689821095</c:v>
+                  <c:v>87.220846898210951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.295650020742</c:v>
+                  <c:v>113.29565002074202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CFB4-4EFC-8143-D8C78260E58C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7981,8 +8259,8 @@
         <c:axId val="2108700264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="180.0"/>
-          <c:min val="0.0"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8003,7 +8281,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -8020,7 +8297,7 @@
         <c:crossAx val="2108697048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="40.0"/>
+        <c:majorUnit val="40"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8035,9 +8312,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.765440533966573"/>
-          <c:y val="0.00150777826591419"/>
-          <c:w val="0.231448531218846"/>
+          <c:x val="0.76544053396657297"/>
+          <c:y val="1.50777826591419E-3"/>
+          <c:w val="0.23144853121884601"/>
           <c:h val="0.231152002738788"/>
         </c:manualLayout>
       </c:layout>
@@ -8068,7 +8345,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8091,7 +8368,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8128,7 +8411,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8152,20 +8441,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8200,7 +8495,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8230,7 +8531,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8262,7 +8569,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8294,7 +8607,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8326,7 +8645,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8358,7 +8683,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8390,7 +8721,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8403,7 +8740,13 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="9" name="Chart 8"/>
+          <xdr:cNvPr id="9" name="Chart 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -8420,7 +8763,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8482,7 +8831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8543,7 +8898,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8580,7 +8941,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8612,7 +8979,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8644,7 +9017,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8674,7 +9053,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8706,7 +9091,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8719,7 +9110,13 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Chart 2"/>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -8736,7 +9133,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8782,7 +9185,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8844,7 +9253,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8876,7 +9291,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8889,7 +9310,13 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="13" name="Chart 12"/>
+          <xdr:cNvPr id="13" name="Chart 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGraphicFramePr>
             <a:graphicFrameLocks/>
           </xdr:cNvGraphicFramePr>
@@ -8906,7 +9333,13 @@
       </xdr:graphicFrame>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8952,7 +9385,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="TextBox 14"/>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9014,7 +9453,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9046,7 +9491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Left Bracket 4"/>
+        <xdr:cNvPr id="5" name="Left Bracket 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9098,7 +9549,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Left Bracket 16"/>
+        <xdr:cNvPr id="17" name="Left Bracket 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11952,21 +12409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="U15" sqref="U15:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11988,7 +12445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30">
+    <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -12048,7 +12505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>41555</v>
       </c>
@@ -12117,7 +12574,7 @@
         <v>1.9842115533333237E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -12186,7 +12643,7 @@
         <v>2.037861391190604E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>41754</v>
       </c>
@@ -12255,7 +12712,7 @@
         <v>9.6640555365881957E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>41754</v>
       </c>
@@ -12333,7 +12790,7 @@
         <v>1.6628261660609157E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>41754</v>
       </c>
@@ -12411,7 +12868,7 @@
         <v>6.0371419422555501E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>41810</v>
       </c>
@@ -12430,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>41555</v>
       </c>
@@ -12455,7 +12912,7 @@
         <v>10.650537634408602</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -12463,12 +12920,12 @@
       <c r="E10" s="50"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>41817</v>
       </c>
@@ -12537,7 +12994,7 @@
         <v>2.7830878357144356E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="17">
         <v>2</v>
@@ -12604,7 +13061,7 @@
         <v>3.5194916073554242E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
@@ -12637,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10">
         <v>3</v>
@@ -12719,7 +13176,7 @@
         <v>3.1512897215349297E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>4</v>
@@ -12801,7 +13258,7 @@
         <v>1.8562816592332285E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
@@ -12830,12 +13287,12 @@
         <v>3.5981122470748465E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>41817</v>
       </c>
@@ -12860,7 +13317,7 @@
         <v>3.2798911883276012</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17">
         <v>2</v>
@@ -12887,7 +13344,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
@@ -12912,7 +13369,7 @@
         <v>2.0803566339902564</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>41817</v>
       </c>
@@ -12932,7 +13389,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17">
         <v>2</v>
@@ -12950,7 +13407,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -12970,7 +13427,7 @@
         <v>114.46925583409345</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10">
         <v>3</v>
@@ -12988,7 +13445,7 @@
         <v>150.590870946183</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10">
         <v>4</v>
@@ -13006,7 +13463,7 @@
         <v>150.5908709461826</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
@@ -13026,8 +13483,8 @@
         <v>82.11166839194307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" thickBot="1"/>
-    <row r="44" spans="1:6">
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>98</v>
       </c>
@@ -13041,7 +13498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="62"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -13051,7 +13508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="61" t="s">
         <v>73</v>
@@ -13062,7 +13519,7 @@
       <c r="D46" s="63"/>
       <c r="E46" s="61"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>103</v>
       </c>
@@ -13077,7 +13534,7 @@
       </c>
       <c r="E47" s="65"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="65" t="s">
         <v>55</v>
@@ -13090,7 +13547,7 @@
       </c>
       <c r="E48" s="65"/>
     </row>
-    <row r="49" spans="1:5" ht="16" thickBot="1">
+    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="68"/>
       <c r="B49" s="69" t="s">
         <v>52</v>
@@ -13103,7 +13560,7 @@
       </c>
       <c r="E49" s="65"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
@@ -13128,20 +13585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13160,7 +13617,7 @@
       <c r="Q1" s="82"/>
       <c r="R1" s="82"/>
     </row>
-    <row r="2" spans="1:20" ht="30">
+    <row r="2" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -13214,7 +13671,7 @@
       <c r="S2" s="82"/>
       <c r="T2" s="75"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>41555</v>
       </c>
@@ -13275,7 +13732,7 @@
         <v>204203587.09977499</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -13330,7 +13787,7 @@
         <v>404280960.173729</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>41754</v>
       </c>
@@ -13385,7 +13842,7 @@
         <v>668450848.16999698</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>41754</v>
       </c>
@@ -13455,7 +13912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>41754</v>
       </c>
@@ -13525,7 +13982,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>41810</v>
       </c>
@@ -13544,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>41555</v>
       </c>
@@ -13569,7 +14026,7 @@
         <v>10.650537634408602</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -13577,12 +14034,12 @@
       <c r="E10" s="50"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>41817</v>
       </c>
@@ -13640,7 +14097,7 @@
         <v>528480013.058981</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="17">
         <v>2</v>
@@ -13663,7 +14120,7 @@
         <v>5.1784713481947469</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
@@ -13688,7 +14145,7 @@
         <v>6.1542610663491102</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10">
         <v>3</v>
@@ -13711,7 +14168,7 @@
         <v>8.096283384203387</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>4</v>
@@ -13734,7 +14191,7 @@
         <v>8.0962833842033657</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
@@ -13759,12 +14216,12 @@
         <v>4.4146058275238209</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>41817</v>
       </c>
@@ -13789,7 +14246,7 @@
         <v>3.2798911883276012</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17">
         <v>2</v>
@@ -13816,7 +14273,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
@@ -13841,7 +14298,7 @@
         <v>2.0803566339902564</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>41817</v>
       </c>
@@ -13861,7 +14318,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17">
         <v>2</v>
@@ -13879,7 +14336,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -13899,7 +14356,7 @@
         <v>114.46925583409345</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10">
         <v>3</v>
@@ -13917,7 +14374,7 @@
         <v>150.590870946183</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10">
         <v>4</v>
@@ -13935,7 +14392,7 @@
         <v>150.5908709461826</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
@@ -13955,8 +14412,8 @@
         <v>82.11166839194307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" thickBot="1"/>
-    <row r="44" spans="1:6">
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>98</v>
       </c>
@@ -13970,7 +14427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="62"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -13980,7 +14437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="61" t="s">
         <v>73</v>
@@ -13991,7 +14448,7 @@
       <c r="D46" s="63"/>
       <c r="E46" s="61"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>103</v>
       </c>
@@ -14006,7 +14463,7 @@
       </c>
       <c r="E47" s="65"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="65" t="s">
         <v>55</v>
@@ -14019,7 +14476,7 @@
       </c>
       <c r="E48" s="65"/>
     </row>
-    <row r="49" spans="1:5" ht="16" thickBot="1">
+    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="68"/>
       <c r="B49" s="69" t="s">
         <v>52</v>
@@ -14032,7 +14489,7 @@
       </c>
       <c r="E49" s="65"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
@@ -14057,7 +14514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14067,28 +14524,28 @@
       <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="5" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
     <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
     <col min="17" max="18" width="9.5" customWidth="1"/>
     <col min="19" max="20" width="6.5" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" customWidth="1"/>
-    <col min="24" max="24" width="7.83203125" customWidth="1"/>
+    <col min="21" max="21" width="6.125" customWidth="1"/>
+    <col min="22" max="22" width="8.625" customWidth="1"/>
+    <col min="23" max="23" width="7.375" customWidth="1"/>
+    <col min="24" max="24" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14141,7 +14598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="29" t="s">
         <v>6</v>
@@ -14195,7 +14652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1">
+    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>41514</v>
       </c>
@@ -14274,7 +14731,7 @@
         <v>47.025074225724239</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1">
+    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>41544</v>
       </c>
@@ -14358,7 +14815,7 @@
         <v>56.019176476272349</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1">
+    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>41555</v>
       </c>
@@ -14436,7 +14893,7 @@
         <v>30.965555338033759</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1">
+    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>42</v>
       </c>
@@ -14511,7 +14968,7 @@
         <v>29.157233390543055</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41558</v>
       </c>
@@ -14590,7 +15047,7 @@
         <v>39.247458596097573</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="18" customFormat="1">
+    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>41754</v>
       </c>
@@ -14668,7 +15125,7 @@
         <v>26.27676315391842</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="21" customFormat="1">
+    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>41555</v>
       </c>
@@ -14753,7 +15210,7 @@
         <v>21.955886789492045</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1">
+    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>42</v>
       </c>
@@ -14833,7 +15290,7 @@
         <v>20.308684949037882</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1">
+    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>41754</v>
       </c>
@@ -14915,7 +15372,7 @@
         <v>17.311036284635446</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="45"/>
       <c r="C12" s="46"/>
@@ -14936,12 +15393,12 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1">
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
         <v>19</v>
       </c>
@@ -14986,7 +15443,7 @@
         <v>38.115210196764899</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P15">
         <f t="shared" ref="P15:W15" si="11">STDEV(P3,P4,P5,P6,P7,P8)/SQRT(COUNT(P3,P4,P5,P6,P7,P8))</f>
         <v>25.307494958104755</v>
@@ -15028,8 +15485,8 @@
         <v>4.735438780923201</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1"/>
-    <row r="18" spans="15:26">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="15:26" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>46</v>
       </c>
@@ -15078,7 +15535,7 @@
         <v>19.858536007721792</v>
       </c>
     </row>
-    <row r="19" spans="15:26">
+    <row r="19" spans="15:26" x14ac:dyDescent="0.25">
       <c r="P19">
         <f>STDEV(P9,P10,P11)/SQRT(COUNT(P9,P10,P11))</f>
         <v>13.723691190131831</v>
@@ -15124,7 +15581,7 @@
         <v>1.3596120286246676</v>
       </c>
     </row>
-    <row r="21" spans="15:26">
+    <row r="21" spans="15:26" x14ac:dyDescent="0.25">
       <c r="O21" t="s">
         <v>47</v>
       </c>
@@ -15157,7 +15614,7 @@
         <v>8.1011056643610246E-2</v>
       </c>
     </row>
-    <row r="23" spans="15:26">
+    <row r="23" spans="15:26" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
         <v>48</v>
       </c>
@@ -15193,7 +15650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15203,19 +15660,19 @@
       <selection pane="bottomRight" activeCell="U3" sqref="U3:U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15260,7 +15717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="45">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -15315,7 +15772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1">
+    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>41817</v>
       </c>
@@ -15389,7 +15846,7 @@
         <v>26.466151363657506</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1">
+    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>2</v>
@@ -15460,7 +15917,7 @@
         <v>15.037862493763953</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1">
+    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -15536,7 +15993,7 @@
         <v>28.128175507138195</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="11" customFormat="1">
+    <row r="6" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -15611,7 +16068,7 @@
         <v>30.214458136023481</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="11" customFormat="1">
+    <row r="7" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -15689,7 +16146,7 @@
         <v>35.049199837438806</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1">
+    <row r="8" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
@@ -15767,7 +16224,7 @@
         <v>21.169747393318278</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9"/>
       <c r="D9"/>
@@ -15784,7 +16241,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10"/>
       <c r="D10"/>
@@ -15801,7 +16258,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1">
+    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="O11" s="18" t="s">
         <v>29</v>
@@ -15847,7 +16304,7 @@
         <v>25.312191134132011</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="18" customFormat="1">
+    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="P12" s="18" t="s">
         <v>31</v>
@@ -15885,12 +16342,12 @@
         <v>4.1145028424894114</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:26" s="21" customFormat="1">
+    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="H14" s="23"/>
       <c r="L14" s="23"/>
@@ -15937,7 +16394,7 @@
         <v>28.811135122260186</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="D15" s="18"/>
@@ -15981,14 +16438,14 @@
         <v>4.0676277545136399</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -16029,7 +16486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -16042,30 +16499,30 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="85"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="85"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="85"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="85"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="85"/>
       <c r="C24" s="2"/>
@@ -16077,7 +16534,7 @@
       <c r="J24" s="8"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="85"/>
       <c r="C25" s="2"/>
@@ -16088,7 +16545,7 @@
       <c r="H25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="85"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -16096,40 +16553,40 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" s="85"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="85"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="85"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="85"/>
       <c r="C31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16143,29 +16600,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16210,7 +16667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="45">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -16265,7 +16722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="18" customFormat="1">
+    <row r="3" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>41817</v>
       </c>
@@ -16339,7 +16796,7 @@
         <v>18.96424620586334</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="18" customFormat="1">
+    <row r="4" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>2</v>
@@ -16410,7 +16867,7 @@
         <v>15.32589649665144</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="18" customFormat="1">
+    <row r="5" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>80</v>
       </c>
@@ -16483,7 +16940,7 @@
         <v>17.861893157671531</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="11" customFormat="1">
+    <row r="6" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -16558,7 +17015,7 @@
         <v>12.831481870270606</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="11" customFormat="1">
+    <row r="7" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -16629,7 +17086,7 @@
         <v>22.609357482598067</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="11" customFormat="1">
+    <row r="8" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
@@ -16706,7 +17163,7 @@
         <v>15.094350887645922</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9"/>
       <c r="D9"/>
@@ -16723,7 +17180,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10"/>
       <c r="D10"/>
@@ -16740,7 +17197,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:25" s="18" customFormat="1">
+    <row r="11" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="O11" s="18" t="s">
         <v>29</v>
@@ -16781,7 +17238,7 @@
         <v>17.384011953395436</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="18" customFormat="1">
+    <row r="12" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="P12" s="18" t="s">
         <v>31</v>
@@ -16819,12 +17276,12 @@
         <v>1.0771374077743991</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:25" s="21" customFormat="1">
+    <row r="14" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="H14" s="23"/>
       <c r="L14" s="23"/>
@@ -16871,7 +17328,7 @@
         <v>16.845063413504864</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="D15" s="18"/>
@@ -16915,18 +17372,25 @@
         <v>2.955247233520212</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="M16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="M17">
+        <f>(M3+N3)/J3</f>
+        <v>2.1033062134935172E-2</v>
+      </c>
       <c r="P17" t="s">
         <v>47</v>
       </c>
@@ -16959,11 +17423,15 @@
         <v>0.21548910391797854</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="M18">
+        <f t="shared" ref="M18:M22" si="13">(M4+N4)/J4</f>
+        <v>1.8558982497615763E-2</v>
+      </c>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -16972,30 +17440,46 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>2.144050561350359E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" s="85"/>
       <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="M20">
+        <f t="shared" si="13"/>
+        <v>1.9674636996941348E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="85"/>
       <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>2.3050171114568169E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="85"/>
       <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>1.532183309869632E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="85"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="85"/>
       <c r="C24" s="24"/>
@@ -17007,7 +17491,7 @@
       <c r="J24" s="8"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="85"/>
       <c r="C25" s="24"/>
@@ -17018,7 +17502,7 @@
       <c r="H25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" s="85"/>
       <c r="C26" s="24"/>
       <c r="D26" s="1"/>
@@ -17026,23 +17510,23 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" s="85"/>
       <c r="C28" s="24"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="85"/>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="85"/>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="85"/>
       <c r="C31" s="24"/>
@@ -17073,16 +17557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>51</v>
       </c>
@@ -17113,7 +17597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="79" t="s">
         <v>54</v>
@@ -17145,7 +17629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
         <v>52</v>
       </c>
@@ -17191,7 +17675,7 @@
         <v>38.115210196764899</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="78"/>
       <c r="B4" s="78" t="s">
         <v>32</v>
@@ -17236,7 +17720,7 @@
         <v>4.735438780923201</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
       <c r="C5" s="52"/>
@@ -17244,7 +17728,7 @@
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>55</v>
       </c>
@@ -17294,7 +17778,7 @@
         <v>23.210729788186551</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="78" t="s">
         <v>32</v>
@@ -17343,7 +17827,7 @@
         <v>4.1145028424894114</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="52"/>
@@ -17351,7 +17835,7 @@
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
         <v>56</v>
       </c>
@@ -17401,7 +17885,7 @@
         <v>17.384011953395436</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="78" t="s">
         <v>32</v>
@@ -17450,12 +17934,12 @@
         <v>1.0771374077743991</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="51" t="s">
         <v>57</v>
       </c>
@@ -17464,7 +17948,7 @@
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="83"/>
@@ -17473,7 +17957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -17515,7 +17999,7 @@
         <v>20.332449139125117</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -17554,7 +18038,7 @@
         <v>5.7699747711058071</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -17596,7 +18080,7 @@
         <v>26.396657864688702</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -17635,7 +18119,7 @@
         <v>4.1048825430274318</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -17677,7 +18161,7 @@
         <v>16.781229735095089</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -17718,16 +18202,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17741,16 +18225,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="30">
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
@@ -17788,7 +18272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -17834,7 +18318,7 @@
         <v>1.0852095950154377</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -17866,7 +18350,7 @@
         <v>7.7766878108075754E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -17891,7 +18375,7 @@
         <v>13.750978835767379</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1">
+    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -17913,7 +18397,7 @@
         <v>0.43055668489574067</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -17926,7 +18410,7 @@
         <v>1.547935677291042</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -17943,7 +18427,7 @@
         <v>3.9391408698539805</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -17981,7 +18465,7 @@
         <v>2.8172389537523865E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -17994,7 +18478,7 @@
         <v>5.6498812608154232</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -18007,7 +18491,7 @@
         <v>2.5551541540482288</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -18038,7 +18522,7 @@
         <v>8.2869502840729242E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -18049,7 +18533,7 @@
         <v>5.5249037811164277</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -18060,12 +18544,12 @@
         <v>4.5985107019325584</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -18088,7 +18572,7 @@
         <v>1.3596120286246676</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -18103,7 +18587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -18111,7 +18595,7 @@
         <v>17.311036284635446</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -18127,7 +18611,7 @@
         <v>4.0676277545136399</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -18135,7 +18619,7 @@
         <v>35.049199837438806</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -18143,7 +18627,7 @@
         <v>21.169747393318278</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -18166,7 +18650,7 @@
         <v>2.955247233520212</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -18174,7 +18658,7 @@
         <v>22.609357482598067</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -18196,16 +18680,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>87</v>
       </c>
@@ -18216,7 +18700,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>85</v>
       </c>
@@ -18228,7 +18712,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -18261,7 +18745,7 @@
         <v>3.7638632635454153E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>41514</v>
       </c>
@@ -18275,7 +18759,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5">
         <v>3</v>
@@ -18301,7 +18785,7 @@
         <v>7.2280665813060185</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>41544</v>
       </c>
@@ -18329,7 +18813,7 @@
         <v>6.8591980558930734</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>41555</v>
       </c>
@@ -18357,7 +18841,7 @@
         <v>7.1179924242424244</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" t="s">
         <v>82</v>
@@ -18383,7 +18867,7 @@
         <v>7.124923857868021</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -18411,7 +18895,7 @@
         <v>7.049912935323384</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>82</v>
@@ -18437,7 +18921,7 @@
         <v>7.1887836107554426</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>41558</v>
       </c>
@@ -18462,7 +18946,7 @@
         <v>6.7032699167657546</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>82</v>
@@ -18488,7 +18972,7 @@
         <v>6.9363478260869558</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>41754</v>
       </c>
@@ -18516,7 +19000,7 @@
         <v>6.6640983606557382</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>82</v>
       </c>
@@ -18544,7 +19028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -18579,7 +19063,7 @@
         <v>7.3155793206654938</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -18614,7 +19098,7 @@
         <v>1.2644782225890234E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="G17" s="50"/>
@@ -18623,7 +19107,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -18655,7 +19139,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>78</v>
       </c>
@@ -18681,7 +19165,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>79</v>
       </c>
@@ -18712,7 +19196,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>78</v>
       </c>
@@ -18742,7 +19226,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -18780,7 +19264,7 @@
         <v>7.329834230429749</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>32</v>
       </c>
@@ -18815,7 +19299,7 @@
         <v>3.8432991057540347E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
       <c r="G24" s="50"/>
@@ -18823,7 +19307,7 @@
       <c r="I24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -18846,7 +19330,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>78</v>
       </c>
@@ -18863,7 +19347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>79</v>
       </c>
@@ -18883,7 +19367,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>78</v>
       </c>
@@ -18900,7 +19384,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -18924,7 +19408,7 @@
         <v>7.6337499999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -18958,12 +19442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/UMRC6_HK2_UOK262_REGFLOW_summary.xlsx
+++ b/UMRC6_HK2_UOK262_REGFLOW_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66A98B-4BAB-4781-8536-CD8203CF9861}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C7F43-E097-451E-ADFB-7A2DAC5760F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flux_fit_fixedT1" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -449,6 +449,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,6 +458,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,16 +467,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -8355,16 +8360,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1253490</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12416,14 +12421,14 @@
       <selection activeCell="U15" sqref="U15:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12445,7 +12450,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -12505,7 +12510,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>41555</v>
       </c>
@@ -12574,7 +12579,7 @@
         <v>1.9842115533333237E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -12643,7 +12648,7 @@
         <v>2.037861391190604E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>41754</v>
       </c>
@@ -12712,7 +12717,7 @@
         <v>9.6640555365881957E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>41754</v>
       </c>
@@ -12790,7 +12795,7 @@
         <v>1.6628261660609157E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>41754</v>
       </c>
@@ -12868,7 +12873,7 @@
         <v>6.0371419422555501E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>41810</v>
       </c>
@@ -12887,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>41555</v>
       </c>
@@ -12912,7 +12917,7 @@
         <v>10.650537634408602</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -12920,12 +12925,12 @@
       <c r="E10" s="50"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>41817</v>
       </c>
@@ -12994,7 +12999,7 @@
         <v>2.7830878357144356E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="17">
         <v>2</v>
@@ -13061,7 +13066,7 @@
         <v>3.5194916073554242E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
@@ -13094,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10">
         <v>3</v>
@@ -13176,7 +13181,7 @@
         <v>3.1512897215349297E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>4</v>
@@ -13258,7 +13263,7 @@
         <v>1.8562816592332285E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
@@ -13287,12 +13292,12 @@
         <v>3.5981122470748465E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>41817</v>
       </c>
@@ -13317,7 +13322,7 @@
         <v>3.2798911883276012</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17">
         <v>2</v>
@@ -13344,7 +13349,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
@@ -13369,7 +13374,7 @@
         <v>2.0803566339902564</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>41817</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="17">
         <v>2</v>
@@ -13407,7 +13412,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -13427,7 +13432,7 @@
         <v>114.46925583409345</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="10">
         <v>3</v>
@@ -13445,7 +13450,7 @@
         <v>150.590870946183</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="10">
         <v>4</v>
@@ -13463,7 +13468,7 @@
         <v>150.5908709461826</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
@@ -13483,8 +13488,8 @@
         <v>82.11166839194307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="57" t="s">
         <v>98</v>
       </c>
@@ -13498,7 +13503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="62"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -13508,7 +13513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
       <c r="B46" s="61" t="s">
         <v>73</v>
@@ -13519,7 +13524,7 @@
       <c r="D46" s="63"/>
       <c r="E46" s="61"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>103</v>
       </c>
@@ -13534,7 +13539,7 @@
       </c>
       <c r="E47" s="65"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="65" t="s">
         <v>55</v>
@@ -13547,7 +13552,7 @@
       </c>
       <c r="E48" s="65"/>
     </row>
-    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="68"/>
       <c r="B49" s="69" t="s">
         <v>52</v>
@@ -13560,7 +13565,7 @@
       </c>
       <c r="E49" s="65"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
@@ -13592,13 +13597,13 @@
       <selection activeCell="H2" sqref="H2:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13617,7 +13622,7 @@
       <c r="Q1" s="82"/>
       <c r="R1" s="82"/>
     </row>
-    <row r="2" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -13671,7 +13676,7 @@
       <c r="S2" s="82"/>
       <c r="T2" s="75"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>41555</v>
       </c>
@@ -13732,7 +13737,7 @@
         <v>204203587.09977499</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -13787,7 +13792,7 @@
         <v>404280960.173729</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>41754</v>
       </c>
@@ -13842,7 +13847,7 @@
         <v>668450848.16999698</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>41754</v>
       </c>
@@ -13912,7 +13917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>41754</v>
       </c>
@@ -13982,7 +13987,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>41810</v>
       </c>
@@ -14001,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>41555</v>
       </c>
@@ -14026,7 +14031,7 @@
         <v>10.650537634408602</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -14034,12 +14039,12 @@
       <c r="E10" s="50"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>41817</v>
       </c>
@@ -14097,7 +14102,7 @@
         <v>528480013.058981</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="17">
         <v>2</v>
@@ -14120,7 +14125,7 @@
         <v>5.1784713481947469</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
@@ -14145,7 +14150,7 @@
         <v>6.1542610663491102</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10">
         <v>3</v>
@@ -14168,7 +14173,7 @@
         <v>8.096283384203387</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>4</v>
@@ -14191,7 +14196,7 @@
         <v>8.0962833842033657</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
@@ -14216,12 +14221,12 @@
         <v>4.4146058275238209</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>41817</v>
       </c>
@@ -14246,7 +14251,7 @@
         <v>3.2798911883276012</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17">
         <v>2</v>
@@ -14273,7 +14278,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
@@ -14298,7 +14303,7 @@
         <v>2.0803566339902564</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>41817</v>
       </c>
@@ -14318,7 +14323,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="17">
         <v>2</v>
@@ -14336,7 +14341,7 @@
         <v>96.319567076422288</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -14356,7 +14361,7 @@
         <v>114.46925583409345</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="10">
         <v>3</v>
@@ -14374,7 +14379,7 @@
         <v>150.590870946183</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="10">
         <v>4</v>
@@ -14392,7 +14397,7 @@
         <v>150.5908709461826</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
@@ -14412,8 +14417,8 @@
         <v>82.11166839194307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="57" t="s">
         <v>98</v>
       </c>
@@ -14427,7 +14432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="62"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -14437,7 +14442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
       <c r="B46" s="61" t="s">
         <v>73</v>
@@ -14448,7 +14453,7 @@
       <c r="D46" s="63"/>
       <c r="E46" s="61"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>103</v>
       </c>
@@ -14463,7 +14468,7 @@
       </c>
       <c r="E47" s="65"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="65" t="s">
         <v>55</v>
@@ -14476,7 +14481,7 @@
       </c>
       <c r="E48" s="65"/>
     </row>
-    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="68"/>
       <c r="B49" s="69" t="s">
         <v>52</v>
@@ -14489,7 +14494,7 @@
       </c>
       <c r="E49" s="65"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
@@ -14518,34 +14523,34 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.125" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="5" max="6" width="6.09765625" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" customWidth="1"/>
     <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="7.8984375" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
     <col min="17" max="18" width="9.5" customWidth="1"/>
     <col min="19" max="20" width="6.5" customWidth="1"/>
-    <col min="21" max="21" width="6.125" customWidth="1"/>
-    <col min="22" max="22" width="8.625" customWidth="1"/>
-    <col min="23" max="23" width="7.375" customWidth="1"/>
-    <col min="24" max="24" width="7.875" customWidth="1"/>
+    <col min="21" max="21" width="6.09765625" customWidth="1"/>
+    <col min="22" max="22" width="8.59765625" customWidth="1"/>
+    <col min="23" max="23" width="7.3984375" customWidth="1"/>
+    <col min="24" max="24" width="7.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14598,7 +14603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="29" t="s">
         <v>6</v>
@@ -14652,7 +14657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>41514</v>
       </c>
@@ -14731,7 +14736,7 @@
         <v>47.025074225724239</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>41544</v>
       </c>
@@ -14815,7 +14820,7 @@
         <v>56.019176476272349</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>41555</v>
       </c>
@@ -14893,7 +14898,7 @@
         <v>30.965555338033759</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>42</v>
       </c>
@@ -14968,7 +14973,7 @@
         <v>29.157233390543055</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>41558</v>
       </c>
@@ -15047,7 +15052,7 @@
         <v>39.247458596097573</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>41754</v>
       </c>
@@ -15125,7 +15130,7 @@
         <v>26.27676315391842</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>41555</v>
       </c>
@@ -15210,7 +15215,7 @@
         <v>21.955886789492045</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>42</v>
       </c>
@@ -15290,7 +15295,7 @@
         <v>20.308684949037882</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>41754</v>
       </c>
@@ -15372,7 +15377,7 @@
         <v>17.311036284635446</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="45"/>
       <c r="C12" s="46"/>
@@ -15393,12 +15398,12 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="O13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O14" t="s">
         <v>19</v>
       </c>
@@ -15443,7 +15448,7 @@
         <v>38.115210196764899</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="P15">
         <f t="shared" ref="P15:W15" si="11">STDEV(P3,P4,P5,P6,P7,P8)/SQRT(COUNT(P3,P4,P5,P6,P7,P8))</f>
         <v>25.307494958104755</v>
@@ -15485,8 +15490,22 @@
         <v>4.735438780923201</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="15:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <f>(M3+N3)/J3</f>
+        <v>2.4149060647788382E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <f t="shared" ref="M18:M22" si="12">(M4+N4)/J4</f>
+        <v>1.5152452763920184E-2</v>
+      </c>
       <c r="O18" t="s">
         <v>46</v>
       </c>
@@ -15495,35 +15514,35 @@
         <v>148.65858216297462</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:X18" si="12">AVERAGE(Q9,Q10,Q11)</f>
+        <f t="shared" ref="Q18:X18" si="13">AVERAGE(Q9,Q10,Q11)</f>
         <v>1.6774991635859475E-5</v>
       </c>
       <c r="R18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.255737576721632E-6</v>
       </c>
       <c r="S18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5678101893729037</v>
       </c>
       <c r="T18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4209953270613689</v>
       </c>
       <c r="U18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.085083526388364</v>
       </c>
       <c r="V18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1030729212581103E-5</v>
       </c>
       <c r="W18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9888055164342724</v>
       </c>
       <c r="X18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>163.73215889413032</v>
       </c>
       <c r="Y18">
@@ -15535,41 +15554,45 @@
         <v>19.858536007721792</v>
       </c>
     </row>
-    <row r="19" spans="15:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>3.8341634647666607E-2</v>
+      </c>
       <c r="P19">
         <f>STDEV(P9,P10,P11)/SQRT(COUNT(P9,P10,P11))</f>
         <v>13.723691190131831</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:X19" si="13">STDEV(Q9,Q10,Q11)/SQRT(COUNT(Q9,Q10,Q11))</f>
+        <f t="shared" ref="Q19:X19" si="14">STDEV(Q9,Q10,Q11)/SQRT(COUNT(Q9,Q10,Q11))</f>
         <v>4.0797221893681171E-6</v>
       </c>
       <c r="R19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1672105566140411E-6</v>
       </c>
       <c r="S19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3894939706505944</v>
       </c>
       <c r="T19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.40325231509990844</v>
       </c>
       <c r="U19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36185956914512996</v>
       </c>
       <c r="V19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.2285486899228482E-6</v>
       </c>
       <c r="W19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7876330947925514</v>
       </c>
       <c r="X19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3137148000366552</v>
       </c>
       <c r="Y19">
@@ -15581,7 +15604,17 @@
         <v>1.3596120286246676</v>
       </c>
     </row>
-    <row r="21" spans="15:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>2.068487453585803E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <f t="shared" si="12"/>
+        <v>0.20650812254108958</v>
+      </c>
       <c r="O21" t="s">
         <v>47</v>
       </c>
@@ -15614,7 +15647,13 @@
         <v>8.1011056643610246E-2</v>
       </c>
     </row>
-    <row r="23" spans="15:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <f t="shared" si="12"/>
+        <v>1.2015542328676536E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="13:26" x14ac:dyDescent="0.3">
       <c r="S23" t="s">
         <v>48</v>
       </c>
@@ -15654,25 +15693,25 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3:U5"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="7" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="17" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15717,7 +15756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -15772,7 +15811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>41817</v>
       </c>
@@ -15846,7 +15885,7 @@
         <v>26.466151363657506</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>2</v>
@@ -15917,7 +15956,7 @@
         <v>15.037862493763953</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -15993,7 +16032,7 @@
         <v>28.128175507138195</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -16068,7 +16107,7 @@
         <v>30.214458136023481</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -16146,7 +16185,7 @@
         <v>35.049199837438806</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
@@ -16224,7 +16263,7 @@
         <v>21.169747393318278</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9"/>
       <c r="D9"/>
@@ -16241,7 +16280,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10"/>
       <c r="D10"/>
@@ -16258,7 +16297,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="O11" s="18" t="s">
         <v>29</v>
@@ -16304,7 +16343,7 @@
         <v>25.312191134132011</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="P12" s="18" t="s">
         <v>31</v>
@@ -16342,12 +16381,12 @@
         <v>4.1145028424894114</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="H14" s="23"/>
       <c r="L14" s="23"/>
@@ -16394,7 +16433,7 @@
         <v>28.811135122260186</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="D15" s="18"/>
@@ -16438,18 +16477,25 @@
         <v>4.0676277545136399</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="D16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="M17">
+        <f>(M3+N3)/J3</f>
+        <v>3.2282790189882969E-2</v>
+      </c>
       <c r="P17" t="s">
         <v>47</v>
       </c>
@@ -16486,11 +16532,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="M18">
+        <f t="shared" ref="M18:M22" si="13">(M4+N4)/J4</f>
+        <v>1.9685042808742489E-2</v>
+      </c>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -16499,30 +16549,46 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>6.0474682254895953E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" s="85"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="13"/>
+        <v>3.9758174199751979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="85"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>4.4234246901484919E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" s="85"/>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>3.9166027258272493E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="85"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="85"/>
       <c r="C24" s="2"/>
@@ -16534,7 +16600,7 @@
       <c r="J24" s="8"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="85"/>
       <c r="C25" s="2"/>
@@ -16545,7 +16611,7 @@
       <c r="H25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="85"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -16553,40 +16619,40 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" s="85"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="85"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30" s="85"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="85"/>
       <c r="C31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16607,22 +16673,22 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="7" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16667,7 +16733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -16722,7 +16788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>41817</v>
       </c>
@@ -16796,7 +16862,7 @@
         <v>18.96424620586334</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>2</v>
@@ -16867,7 +16933,7 @@
         <v>15.32589649665144</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>80</v>
       </c>
@@ -16940,7 +17006,7 @@
         <v>17.861893157671531</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -17015,7 +17081,7 @@
         <v>12.831481870270606</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -17086,7 +17152,7 @@
         <v>22.609357482598067</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
@@ -17163,7 +17229,7 @@
         <v>15.094350887645922</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9"/>
       <c r="D9"/>
@@ -17180,7 +17246,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10"/>
       <c r="D10"/>
@@ -17197,7 +17263,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="O11" s="18" t="s">
         <v>29</v>
@@ -17238,7 +17304,7 @@
         <v>17.384011953395436</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="P12" s="18" t="s">
         <v>31</v>
@@ -17276,12 +17342,12 @@
         <v>1.0771374077743991</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="H14" s="23"/>
       <c r="L14" s="23"/>
@@ -17328,7 +17394,7 @@
         <v>16.845063413504864</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="D15" s="18"/>
@@ -17372,7 +17438,7 @@
         <v>2.955247233520212</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="D16" s="15"/>
       <c r="E16" s="1"/>
@@ -17382,7 +17448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -17423,7 +17489,7 @@
         <v>0.21548910391797854</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -17440,7 +17506,7 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="H19" s="5"/>
@@ -17449,7 +17515,7 @@
         <v>2.144050561350359E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20" s="85"/>
       <c r="C20" s="24"/>
       <c r="M20">
@@ -17457,7 +17523,7 @@
         <v>1.9674636996941348E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="85"/>
       <c r="C21" s="24"/>
@@ -17466,7 +17532,7 @@
         <v>2.3050171114568169E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B22" s="85"/>
       <c r="C22" s="24"/>
       <c r="M22">
@@ -17474,12 +17540,12 @@
         <v>1.532183309869632E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="85"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="85"/>
       <c r="C24" s="24"/>
@@ -17491,7 +17557,7 @@
       <c r="J24" s="8"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="85"/>
       <c r="C25" s="24"/>
@@ -17502,7 +17568,7 @@
       <c r="H25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B26" s="85"/>
       <c r="C26" s="24"/>
       <c r="D26" s="1"/>
@@ -17510,23 +17576,23 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B28" s="85"/>
       <c r="C28" s="24"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="85"/>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30" s="85"/>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="85"/>
       <c r="C31" s="24"/>
@@ -17564,9 +17630,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>51</v>
       </c>
@@ -17597,7 +17663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
       <c r="B2" s="79" t="s">
         <v>54</v>
@@ -17629,7 +17695,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
         <v>52</v>
       </c>
@@ -17675,7 +17741,7 @@
         <v>38.115210196764899</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="78"/>
       <c r="B4" s="78" t="s">
         <v>32</v>
@@ -17720,7 +17786,7 @@
         <v>4.735438780923201</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
       <c r="C5" s="52"/>
@@ -17728,7 +17794,7 @@
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
         <v>55</v>
       </c>
@@ -17778,7 +17844,7 @@
         <v>23.210729788186551</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="78"/>
       <c r="B7" s="78" t="s">
         <v>32</v>
@@ -17827,7 +17893,7 @@
         <v>4.1145028424894114</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="52"/>
@@ -17835,7 +17901,7 @@
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>56</v>
       </c>
@@ -17885,7 +17951,7 @@
         <v>17.384011953395436</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="78"/>
       <c r="B10" s="78" t="s">
         <v>32</v>
@@ -17934,12 +18000,12 @@
         <v>1.0771374077743991</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="51" t="s">
         <v>57</v>
       </c>
@@ -17948,7 +18014,7 @@
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="83"/>
@@ -17957,7 +18023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -17999,7 +18065,7 @@
         <v>20.332449139125117</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -18038,7 +18104,7 @@
         <v>5.7699747711058071</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -18080,7 +18146,7 @@
         <v>26.396657864688702</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -18119,7 +18185,7 @@
         <v>4.1048825430274318</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -18161,7 +18227,7 @@
         <v>16.781229735095089</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -18202,16 +18268,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18232,9 +18298,9 @@
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
@@ -18272,7 +18338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -18318,7 +18384,7 @@
         <v>1.0852095950154377</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -18350,7 +18416,7 @@
         <v>7.7766878108075754E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -18375,7 +18441,7 @@
         <v>13.750978835767379</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -18397,7 +18463,7 @@
         <v>0.43055668489574067</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -18410,7 +18476,7 @@
         <v>1.547935677291042</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -18427,7 +18493,7 @@
         <v>3.9391408698539805</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -18465,7 +18531,7 @@
         <v>2.8172389537523865E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -18478,7 +18544,7 @@
         <v>5.6498812608154232</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -18491,7 +18557,7 @@
         <v>2.5551541540482288</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -18522,7 +18588,7 @@
         <v>8.2869502840729242E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -18533,7 +18599,7 @@
         <v>5.5249037811164277</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -18544,12 +18610,12 @@
         <v>4.5985107019325584</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -18572,7 +18638,7 @@
         <v>1.3596120286246676</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -18587,7 +18653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -18595,7 +18661,7 @@
         <v>17.311036284635446</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -18611,7 +18677,7 @@
         <v>4.0676277545136399</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -18619,7 +18685,7 @@
         <v>35.049199837438806</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -18627,7 +18693,7 @@
         <v>21.169747393318278</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -18650,7 +18716,7 @@
         <v>2.955247233520212</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -18658,7 +18724,7 @@
         <v>22.609357482598067</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -18687,9 +18753,9 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>87</v>
       </c>
@@ -18700,7 +18766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>85</v>
       </c>
@@ -18712,7 +18778,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -18745,7 +18811,7 @@
         <v>3.7638632635454153E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>41514</v>
       </c>
@@ -18759,7 +18825,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5">
         <v>3</v>
@@ -18785,7 +18851,7 @@
         <v>7.2280665813060185</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>41544</v>
       </c>
@@ -18813,7 +18879,7 @@
         <v>6.8591980558930734</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>41555</v>
       </c>
@@ -18841,7 +18907,7 @@
         <v>7.1179924242424244</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" t="s">
         <v>82</v>
@@ -18867,7 +18933,7 @@
         <v>7.124923857868021</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -18895,7 +18961,7 @@
         <v>7.049912935323384</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>82</v>
@@ -18921,7 +18987,7 @@
         <v>7.1887836107554426</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>41558</v>
       </c>
@@ -18946,7 +19012,7 @@
         <v>6.7032699167657546</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>82</v>
@@ -18972,7 +19038,7 @@
         <v>6.9363478260869558</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>41754</v>
       </c>
@@ -19000,7 +19066,7 @@
         <v>6.6640983606557382</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>82</v>
       </c>
@@ -19028,7 +19094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -19063,7 +19129,7 @@
         <v>7.3155793206654938</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -19098,7 +19164,7 @@
         <v>1.2644782225890234E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="G17" s="50"/>
@@ -19107,7 +19173,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -19139,7 +19205,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>78</v>
       </c>
@@ -19165,7 +19231,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>79</v>
       </c>
@@ -19196,7 +19262,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>78</v>
       </c>
@@ -19226,7 +19292,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -19264,7 +19330,7 @@
         <v>7.329834230429749</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>32</v>
       </c>
@@ -19299,7 +19365,7 @@
         <v>3.8432991057540347E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
       <c r="G24" s="50"/>
@@ -19307,7 +19373,7 @@
       <c r="I24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -19330,7 +19396,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>78</v>
       </c>
@@ -19347,7 +19413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>79</v>
       </c>
@@ -19367,7 +19433,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>78</v>
       </c>
@@ -19384,7 +19450,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -19408,7 +19474,7 @@
         <v>7.6337499999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>32</v>
       </c>
@@ -19447,7 +19513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
